--- a/biology/Zoologie/Darevskia_bendimahiensis/Darevskia_bendimahiensis.xlsx
+++ b/biology/Zoologie/Darevskia_bendimahiensis/Darevskia_bendimahiensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Darevskia bendimahiensis est une espèce de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Darevskia bendimahiensis est une espèce de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'Est de la Turquie[1]. Elle se rencontre entre 1 800 m et 2 300 m d'altitude au Nord-Est du Lac de Van[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'Est de la Turquie. Elle se rencontre entre 1 800 m et 2 300 m d'altitude au Nord-Est du Lac de Van.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est parthénogénique. Elle résulte d'une hybridation entre Darevskia valentini et Darevskia raddei selon Schmidtler, Eiselt et Darevsky[3].
-C'est un reptile terrestre qui vit dans les zones rocheuses ou faiblement herbeuses, en général à proximité de l'eau. L'espèce est composée uniquement de femelles parthénogéniques, et celles-ci pondent deux œufs à la fois[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est parthénogénique. Elle résulte d'une hybridation entre Darevskia valentini et Darevskia raddei selon Schmidtler, Eiselt et Darevsky.
+C'est un reptile terrestre qui vit dans les zones rocheuses ou faiblement herbeuses, en général à proximité de l'eau. L'espèce est composée uniquement de femelles parthénogéniques, et celles-ci pondent deux œufs à la fois.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de bendimahi et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, les chutes Bendimahi.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Schmidtler, Eiselt &amp; Darevsky, 1994 : Untersuchungen an Feldeidechsen (Lacerte-saxicola-Gruppe) in der östlichen Türkei: 3. Zwei neue parthogenetische Arten. Salamandra, vol. 30, n. 1, p. 55-70 (texte intégral).</t>
         </is>
